--- a/biology/Neurosciences/Cortex_piriforme/Cortex_piriforme.xlsx
+++ b/biology/Neurosciences/Cortex_piriforme/Cortex_piriforme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cortex piriforme, ou cortex pyriforme, auparavant également appelé cortex prépiriforme, est une région du cerveau et est la plus grande des aires olfactives[1]. Le cortex piriforme, situé au centre du cortex olfactif primaire fait partie du rhinencéphale situé dans le télencéphale. La fonction du cortex piriforme est liée à l'olfaction d'où son autre appellation de cortex olfactif[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cortex piriforme, ou cortex pyriforme, auparavant également appelé cortex prépiriforme, est une région du cerveau et est la plus grande des aires olfactives. Le cortex piriforme, situé au centre du cortex olfactif primaire fait partie du rhinencéphale situé dans le télencéphale. La fonction du cortex piriforme est liée à l'olfaction d'où son autre appellation de cortex olfactif.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Anatomie et fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cortex piriforme fait partie du rhinencéphale. Les neurones du cortex piriforme se projette massivement vers le bulbe olfactif[1].
-En anatomie humaine, le cortex piriforme a été décrit comme étant composé de l'amygdale corticale, de l'uncus et du gyrus parahippocampique antérieur[3]. De manière plus précise, le cortex piriforme humain est situé entre le cortex insulaire et le lobe temporal, en avant et latéralement au niveau de l'amygdale[4],[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cortex piriforme fait partie du rhinencéphale. Les neurones du cortex piriforme se projette massivement vers le bulbe olfactif.
+En anatomie humaine, le cortex piriforme a été décrit comme étant composé de l'amygdale corticale, de l'uncus et du gyrus parahippocampique antérieur. De manière plus précise, le cortex piriforme humain est situé entre le cortex insulaire et le lobe temporal, en avant et latéralement au niveau de l'amygdale,. 
 Le cortex piriforme correspond à l'aire de Brodmann 27.
 La fonction du cortex piriforme se rapporte à l'olfaction, soit la perception des odeurs. Cela a en particulier été montré chez l'homme dans la partie postérieure du cortex piriforme
-Le cortex piriforme des rongeurs est connu pour abriter des cellules exprimant des marqueurs de plasticité telle que la doublecortine et le PSA-NCAM qui sont modulés par le système des neurotransmetteurs noradrénergiques[6]. 
+Le cortex piriforme des rongeurs est connu pour abriter des cellules exprimant des marqueurs de plasticité telle que la doublecortine et le PSA-NCAM qui sont modulés par le système des neurotransmetteurs noradrénergiques. 
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parfois appelées cortex olfactif, lobe olfactif ou paléopallium, les régions du cortex piriforme sont présentes dans le cerveau des amphibiens, des reptiles et des mammifères.
 Le cortex piriforme est l'une des trois régions qui apparaissent dans le télencéphale des amphibiens. Il est situé en position caudale par rapport à la zone dorsale, qui est elle-même caudalement positionnée par rapport à la zone hippocampique.
@@ -580,9 +596,11 @@
           <t>Rôle dans l'épilepsie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cortex piriforme contient un foyer épileptogène[7]. À partir de cette région, des crises épileptiques peuvent se déclencher. C'est le site d'action proconvulsive des chemoconvulsifiants[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cortex piriforme contient un foyer épileptogène. À partir de cette région, des crises épileptiques peuvent se déclencher. C'est le site d'action proconvulsive des chemoconvulsifiants.
 </t>
         </is>
       </c>
